--- a/excel/mfb_web.xlsx
+++ b/excel/mfb_web.xlsx
@@ -437,7 +437,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="4.9140625" customWidth="1" min="1" max="1"/>
     <col width="15.1640625" customWidth="1" min="2" max="2"/>
@@ -690,20 +690,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
@@ -722,7 +710,7 @@
       <selection activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="16.4140625" customWidth="1" min="2" max="2"/>
     <col width="9.6640625" customWidth="1" min="3" max="3"/>
@@ -1027,13 +1015,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
@@ -1052,7 +1034,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="4.25" customWidth="1" style="7" min="1" max="1"/>
     <col width="12.08203125" customWidth="1" style="7" min="2" max="2"/>
@@ -1401,13 +1383,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
@@ -1426,7 +1402,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="5.1640625" customWidth="1" min="1" max="1"/>
     <col width="13.58203125" customWidth="1" min="2" max="2"/>
@@ -1805,13 +1781,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
@@ -1830,7 +1800,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="4.5" customWidth="1" min="1" max="1"/>
     <col width="13.4140625" customWidth="1" min="2" max="2"/>
@@ -2256,27 +2226,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
